--- a/biology/Botanique/Tillandsia_macrodactylon/Tillandsia_macrodactylon.xlsx
+++ b/biology/Botanique/Tillandsia_macrodactylon/Tillandsia_macrodactylon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia macrodactylon Mez est une plante de la famille des Bromeliaceae.
 L'épithète macrodactylon, qui signifie « à gros doigt(s) », se réfère à l'aspect de l'inflorescence.
@@ -512,13 +524,15 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia macrodactylon Mez, in Repert. Spec. Nov. Regni Veg. 3: 39 (1906)
-Diagnose originale[1] :
+Diagnose originale :
 « Statura magna; foliis rosulatis. subglabris; inflorescentia laxe bipinnatim panniculata[sic]; spicis flabellatis, omnibus suberectis, +/- 12-floris, elongatis digiti- vel fusiformibus, bracteas primarias longe superantibus; bracteis florigeris quam sepala paullo brevioribus, dorso haud carinatis; floribus suberecto-erectis; sepalis aequaliter liberis; petalis violaceis, stamina superantibus. »
 Type :
-leg. A. Weberbauer, n° 2049, 1903-01-07 ; « Peru via, prov. Tarma, dept. Junin, super Huacapistana, in via Paleam versus, in saxis, alt. 2000-2100 m »[1] ; « Peru: oberhalb Huacapistana, am Wege nach Palea; Dep. Junin, Prov. Tarma. Felsen 2000-2100 m » ; Holotypus B (B 10 0243507)
+leg. A. Weberbauer, n° 2049, 1903-01-07 ; « Peru via, prov. Tarma, dept. Junin, super Huacapistana, in via Paleam versus, in saxis, alt. 2000-2100 m » ; « Peru: oberhalb Huacapistana, am Wege nach Palea; Dep. Junin, Prov. Tarma. Felsen 2000-2100 m » ; Holotypus B (B 10 0243507)
 leg. A. Weberbauer, n° 2049 ; « Peru » ; Isotypus B (B 10 0243506)
 leg. A. Weberbauer, n° 2049 ; « Peru » ; Isotypus B (B 10 0243508)
 leg. A. Weberbauer, n° 2049 ; « Peru » ; Isotypus B (B 10 0243509)
@@ -552,7 +566,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -583,6 +599,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -608,11 +626,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante vivace herbacée ; saxicole[1], terrestre[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typologie : plante vivace herbacée ; saxicole, terrestre.
 Habitat : ?
-Altitude : 2000-2100 m[1] ; vers 2700 m[2].</t>
+Altitude : 2000-2100 m ; vers 2700 m.</t>
         </is>
       </c>
     </row>
@@ -640,11 +660,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du sud :
  Pérou
-Junín[1]</t>
+Junín</t>
         </is>
       </c>
     </row>
@@ -672,7 +694,9 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante mal connue, Tillandsia macrodactylon ne semble pas avoir été introduite en culture.
 </t>
